--- a/RMA Sheets/SO93232_R2.xlsx
+++ b/RMA Sheets/SO93232_R2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\RMA Report\RMA Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B6356A-FAE4-4387-9865-915A229346D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778BECA-32DB-41BB-9179-A36BBB67E892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{48B8B377-A0FC-4AA9-B1FF-077BBD0356CD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48B8B377-A0FC-4AA9-B1FF-077BBD0356CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>USAI</t>
   </si>
@@ -133,12 +135,6 @@
   </si>
   <si>
     <t>QUOTE - MIKUMO HANSELL RESIDENCE</t>
-  </si>
-  <si>
-    <t>Qty (1)</t>
-  </si>
-  <si>
-    <t>RPA-08-08H1-UNV-D6E: $240.00</t>
   </si>
   <si>
     <t>No</t>
@@ -155,6 +151,18 @@
   </si>
   <si>
     <t>phil@philmonat.com</t>
+  </si>
+  <si>
+    <t>Qty (1) $95.00</t>
+  </si>
+  <si>
+    <t>Qty (1) $106.00</t>
+  </si>
+  <si>
+    <t>MDL02-08H1-27KH-35-WH-TRM</t>
+  </si>
+  <si>
+    <t>MWL02-08H1-27KH-WH-TRM</t>
   </si>
 </sst>
 </file>
@@ -540,23 +548,72 @@
     <xf numFmtId="6" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -569,60 +626,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -942,7 +950,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G10"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +973,7 @@
       </c>
       <c r="F1" s="13">
         <f ca="1">TODAY()</f>
-        <v>43803</v>
+        <v>43868</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -978,10 +986,10 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="16" t="s">
         <v>24</v>
       </c>
@@ -995,27 +1003,27 @@
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1029,47 +1037,47 @@
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="23">
         <v>490</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="B8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1079,74 +1087,78 @@
         <v>17</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="A13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="17">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -1158,10 +1170,10 @@
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1175,166 +1187,170 @@
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="50">
         <v>500</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="51"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
+      <c r="B22" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="41"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="41"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
+      <c r="B26" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
+        <v>37</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
+      <c r="A29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="46">
-        <v>240</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="B33" s="37">
+        <v>201</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1354,15 +1370,21 @@
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B34:G37"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B22:G25"/>
@@ -1379,21 +1401,15 @@
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" xr:uid="{EDF6A5FF-83CE-4F36-916F-CC5E10654B4A}"/>
